--- a/APM files/136177069/batch copy.xlsx
+++ b/APM files/136177069/batch copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/136177069/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5903E00-2F84-EA4D-A0BE-C42612355A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D8EE28-82DC-1D46-B109-C20ACE6CAA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19229,7 +19229,7 @@
   <dimension ref="A1:C3473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="57.5" defaultRowHeight="13"/>
